--- a/Benchmarks - Controle.xlsx
+++ b/Benchmarks - Controle.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC CPU 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="Casio" sheetId="2" r:id="rId2"/>
+    <sheet name="execuções" sheetId="3" r:id="rId2"/>
+    <sheet name="xxx" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t xml:space="preserve">runcpu --config=rubens-try1 SPECspeed2017_int_base </t>
   </si>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>Casio gerou intrate e fprate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -604,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -936,6 +940,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C12:C15"/>
@@ -944,14 +956,6 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -960,13 +964,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
